--- a/Documentacion_SCRUM/Sprint Backlog_2.1.xlsx
+++ b/Documentacion_SCRUM/Sprint Backlog_2.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Desktop\U\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\OneDrive\Documentos\GitHub\Proyecto_7mo_Ing.Software\Documentacion_SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$BA$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -440,7 +440,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1059,63 +1059,91 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1512,8 +1540,8 @@
   </sheetPr>
   <dimension ref="A1:BB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScale="87" zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="87" zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,158 +1617,158 @@
       </c>
     </row>
     <row r="4" spans="2:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="72"/>
+      <c r="J4" s="75"/>
       <c r="K4" s="46"/>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="72"/>
+      <c r="M4" s="75"/>
       <c r="N4" s="46"/>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="72"/>
+      <c r="P4" s="75"/>
       <c r="Q4" s="46"/>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="72"/>
+      <c r="S4" s="75"/>
       <c r="T4" s="46"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="72"/>
+      <c r="V4" s="75"/>
       <c r="W4" s="46"/>
-      <c r="X4" s="71" t="s">
+      <c r="X4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="72"/>
+      <c r="Y4" s="75"/>
       <c r="Z4" s="46"/>
-      <c r="AA4" s="71" t="s">
+      <c r="AA4" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="AB4" s="72"/>
+      <c r="AB4" s="75"/>
       <c r="AC4" s="46"/>
-      <c r="AD4" s="71" t="s">
+      <c r="AD4" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="AE4" s="72"/>
+      <c r="AE4" s="75"/>
       <c r="AF4" s="46"/>
-      <c r="AG4" s="71" t="s">
+      <c r="AG4" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="AH4" s="72"/>
+      <c r="AH4" s="75"/>
       <c r="AI4" s="46"/>
-      <c r="AJ4" s="71" t="s">
+      <c r="AJ4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="AK4" s="72"/>
+      <c r="AK4" s="75"/>
       <c r="AL4" s="46"/>
-      <c r="AM4" s="71" t="s">
+      <c r="AM4" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="AN4" s="72"/>
+      <c r="AN4" s="75"/>
       <c r="AO4" s="46"/>
-      <c r="AP4" s="71" t="s">
+      <c r="AP4" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AQ4" s="72"/>
+      <c r="AQ4" s="75"/>
       <c r="AR4" s="46"/>
-      <c r="AS4" s="71" t="s">
+      <c r="AS4" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AT4" s="72"/>
+      <c r="AT4" s="75"/>
       <c r="AU4" s="46"/>
-      <c r="AV4" s="71" t="s">
+      <c r="AV4" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="AW4" s="72"/>
+      <c r="AW4" s="75"/>
       <c r="AX4" s="46"/>
-      <c r="AY4" s="71" t="s">
+      <c r="AY4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="AZ4" s="72"/>
+      <c r="AZ4" s="75"/>
       <c r="BA4" s="46"/>
     </row>
     <row r="5" spans="2:53" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I5" s="77">
+      <c r="I5" s="66">
         <v>43115</v>
       </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="77">
+      <c r="J5" s="67"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66">
         <v>43116</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="77">
+      <c r="M5" s="67"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="66">
         <v>43117</v>
       </c>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="77">
+      <c r="P5" s="67"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="66">
         <v>43118</v>
       </c>
-      <c r="S5" s="76"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="77">
+      <c r="S5" s="67"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="66">
         <v>43122</v>
       </c>
-      <c r="V5" s="76"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="77">
+      <c r="V5" s="67"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="66">
         <v>43123</v>
       </c>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="77">
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="66">
         <v>43124</v>
       </c>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="75"/>
-      <c r="AD5" s="77">
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="66">
         <v>43125</v>
       </c>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="75"/>
-      <c r="AG5" s="77">
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="66">
         <v>43126</v>
       </c>
-      <c r="AH5" s="76"/>
-      <c r="AI5" s="75"/>
-      <c r="AJ5" s="77">
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="65"/>
+      <c r="AJ5" s="66">
         <v>43129</v>
       </c>
-      <c r="AK5" s="76"/>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="77">
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="65"/>
+      <c r="AM5" s="66">
         <v>43130</v>
       </c>
-      <c r="AN5" s="76"/>
-      <c r="AO5" s="75"/>
-      <c r="AP5" s="77">
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="65"/>
+      <c r="AP5" s="66">
         <v>43134</v>
       </c>
-      <c r="AQ5" s="76"/>
-      <c r="AR5" s="75"/>
-      <c r="AS5" s="78">
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="65"/>
+      <c r="AS5" s="76">
         <v>43136</v>
       </c>
-      <c r="AT5" s="79"/>
-      <c r="AU5" s="75"/>
-      <c r="AV5" s="78">
+      <c r="AT5" s="77"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="76">
         <v>43137</v>
       </c>
-      <c r="AW5" s="79"/>
-      <c r="AX5" s="75"/>
-      <c r="AY5" s="78">
+      <c r="AW5" s="77"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="76">
         <v>43138</v>
       </c>
-      <c r="AZ5" s="79"/>
-      <c r="BA5" s="75"/>
+      <c r="AZ5" s="77"/>
+      <c r="BA5" s="65"/>
     </row>
     <row r="6" spans="2:53" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="48" t="s">
@@ -1764,117 +1792,117 @@
       <c r="H6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74" t="s">
+      <c r="J6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74" t="s">
+      <c r="M6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74" t="s">
+      <c r="P6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74" t="s">
+      <c r="S6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74" t="s">
+      <c r="V6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74" t="s">
+      <c r="Y6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AB6" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="74" t="s">
+      <c r="AB6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AE6" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="74" t="s">
+      <c r="AE6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AH6" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI6" s="74"/>
-      <c r="AJ6" s="74" t="s">
+      <c r="AH6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AK6" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL6" s="74"/>
-      <c r="AM6" s="74" t="s">
+      <c r="AK6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL6" s="64"/>
+      <c r="AM6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AN6" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO6" s="74"/>
-      <c r="AP6" s="74" t="s">
+      <c r="AN6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO6" s="64"/>
+      <c r="AP6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AQ6" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR6" s="74"/>
-      <c r="AS6" s="74" t="s">
+      <c r="AQ6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AT6" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU6" s="74"/>
-      <c r="AV6" s="74" t="s">
+      <c r="AT6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU6" s="64"/>
+      <c r="AV6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AW6" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX6" s="74"/>
-      <c r="AY6" s="74" t="s">
+      <c r="AW6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX6" s="64"/>
+      <c r="AY6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AZ6" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA6" s="74"/>
+      <c r="AZ6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA6" s="64"/>
     </row>
     <row r="7" spans="2:53" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="68" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="45" t="s">
@@ -1883,7 +1911,7 @@
       <c r="E7" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="68" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="18" t="s">
@@ -1986,15 +2014,15 @@
       <c r="BA7" s="14"/>
     </row>
     <row r="8" spans="2:53" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="65"/>
-      <c r="C8" s="68"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="45" t="s">
         <v>78</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="18" t="s">
         <v>46</v>
       </c>
@@ -2095,15 +2123,15 @@
       <c r="BA8" s="7"/>
     </row>
     <row r="9" spans="2:53" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="65"/>
-      <c r="C9" s="68"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="45" t="s">
         <v>79</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="18" t="s">
         <v>46</v>
       </c>
@@ -2206,15 +2234,15 @@
       <c r="BA9" s="7"/>
     </row>
     <row r="10" spans="2:53" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="65"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="45" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="68"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="18" t="s">
         <v>46</v>
       </c>
@@ -2317,15 +2345,15 @@
       <c r="BA10" s="7"/>
     </row>
     <row r="11" spans="2:53" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="66"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="45" t="s">
         <v>81</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="69"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="50" t="s">
         <v>46</v>
       </c>
@@ -2428,10 +2456,10 @@
       <c r="BA11" s="17"/>
     </row>
     <row r="12" spans="2:53" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="68" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="45" t="s">
@@ -2440,7 +2468,7 @@
       <c r="E12" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="68" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -2543,15 +2571,15 @@
       <c r="BA12" s="14"/>
     </row>
     <row r="13" spans="2:53" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="65"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="45" t="s">
         <v>82</v>
       </c>
       <c r="E13" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="68"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="18" t="s">
         <v>46</v>
       </c>
@@ -2652,15 +2680,15 @@
       <c r="BA13" s="7"/>
     </row>
     <row r="14" spans="2:53" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="65"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="45" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="68"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="18" t="s">
         <v>46</v>
       </c>
@@ -2765,15 +2793,15 @@
       <c r="BA14" s="7"/>
     </row>
     <row r="15" spans="2:53" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="65"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="45" t="s">
         <v>84</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="68"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="18" t="s">
         <v>46</v>
       </c>
@@ -2880,15 +2908,15 @@
       <c r="BA15" s="7"/>
     </row>
     <row r="16" spans="2:53" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="65"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="45" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="68"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="18" t="s">
         <v>46</v>
       </c>
@@ -2993,15 +3021,15 @@
       <c r="BA16" s="7"/>
     </row>
     <row r="17" spans="1:53" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="65"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="68"/>
+      <c r="F17" s="69"/>
       <c r="G17" s="18" t="s">
         <v>46</v>
       </c>
@@ -3105,15 +3133,15 @@
       <c r="BA17" s="21"/>
     </row>
     <row r="18" spans="1:53" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="66"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="45" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="69"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="18" t="s">
         <v>46</v>
       </c>
@@ -3214,10 +3242,10 @@
       <c r="BA18" s="17"/>
     </row>
     <row r="19" spans="1:53" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="68" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="45" t="s">
@@ -3226,7 +3254,7 @@
       <c r="E19" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="68" t="s">
         <v>51</v>
       </c>
       <c r="G19" s="18" t="s">
@@ -3329,15 +3357,15 @@
       <c r="BA19" s="14"/>
     </row>
     <row r="20" spans="1:53" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="65"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="45" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="68"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="18" t="s">
         <v>46</v>
       </c>
@@ -3438,15 +3466,15 @@
       <c r="BA20" s="7"/>
     </row>
     <row r="21" spans="1:53" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="65"/>
-      <c r="C21" s="68"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="45" t="s">
         <v>89</v>
       </c>
       <c r="E21" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="68"/>
+      <c r="F21" s="69"/>
       <c r="G21" s="18" t="s">
         <v>46</v>
       </c>
@@ -3549,15 +3577,15 @@
       <c r="BA21" s="7"/>
     </row>
     <row r="22" spans="1:53" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="65"/>
-      <c r="C22" s="68"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E22" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="68"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="18" t="s">
         <v>46</v>
       </c>
@@ -3660,15 +3688,15 @@
       <c r="BA22" s="21"/>
     </row>
     <row r="23" spans="1:53" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="65"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="45" t="s">
         <v>91</v>
       </c>
       <c r="E23" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="68"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="18" t="s">
         <v>46</v>
       </c>
@@ -3771,15 +3799,15 @@
       <c r="BA23" s="21"/>
     </row>
     <row r="24" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="66"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="45" t="s">
         <v>92</v>
       </c>
       <c r="E24" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="69"/>
+      <c r="F24" s="70"/>
       <c r="G24" s="18" t="s">
         <v>46</v>
       </c>
@@ -3884,10 +3912,10 @@
       <c r="BA24" s="17"/>
     </row>
     <row r="25" spans="1:53" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="69" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="45" t="s">
@@ -3896,7 +3924,7 @@
       <c r="E25" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="69" t="s">
         <v>50</v>
       </c>
       <c r="G25" s="18" t="s">
@@ -3999,15 +4027,15 @@
       <c r="BA25" s="11"/>
     </row>
     <row r="26" spans="1:53" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="65"/>
-      <c r="C26" s="68"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="45" t="s">
         <v>93</v>
       </c>
       <c r="E26" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="68"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18" t="s">
         <v>46</v>
       </c>
@@ -4109,16 +4137,16 @@
       </c>
       <c r="BA26" s="7"/>
     </row>
-    <row r="27" spans="1:53" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="65"/>
-      <c r="C27" s="68"/>
+    <row r="27" spans="1:53" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="71"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="45" t="s">
         <v>94</v>
       </c>
       <c r="E27" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="68"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="47" t="s">
         <v>46</v>
       </c>
@@ -4198,15 +4226,15 @@
       <c r="BA27" s="7"/>
     </row>
     <row r="28" spans="1:53" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="65"/>
-      <c r="C28" s="68"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="45" t="s">
         <v>95</v>
       </c>
       <c r="E28" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="68"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="18" t="s">
         <v>46</v>
       </c>
@@ -4309,15 +4337,15 @@
       <c r="BA28" s="7"/>
     </row>
     <row r="29" spans="1:53" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="65"/>
-      <c r="C29" s="68"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="45" t="s">
         <v>96</v>
       </c>
       <c r="E29" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="68"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="18" t="s">
         <v>46</v>
       </c>
@@ -4420,15 +4448,15 @@
       <c r="BA29" s="21"/>
     </row>
     <row r="30" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="65"/>
-      <c r="C30" s="68"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="45" t="s">
         <v>97</v>
       </c>
       <c r="E30" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="68"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="18" t="s">
         <v>46</v>
       </c>
@@ -4531,15 +4559,15 @@
       <c r="BA30" s="21"/>
     </row>
     <row r="31" spans="1:53" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="65"/>
-      <c r="C31" s="68"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="45" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="18" t="s">
         <v>46</v>
       </c>
@@ -4641,12 +4669,12 @@
       </c>
       <c r="BA31" s="21"/>
     </row>
-    <row r="32" spans="1:53" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64" t="s">
+    <row r="32" spans="1:53" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="72"/>
+      <c r="B32" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="68" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="45" t="s">
@@ -4655,7 +4683,7 @@
       <c r="E32" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="67" t="s">
+      <c r="F32" s="68" t="s">
         <v>44</v>
       </c>
       <c r="G32" s="18" t="s">
@@ -4758,16 +4786,16 @@
       <c r="BA32" s="14"/>
     </row>
     <row r="33" spans="1:53" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="68"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="45" t="s">
         <v>98</v>
       </c>
       <c r="E33" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="69"/>
       <c r="G33" s="18" t="s">
         <v>46</v>
       </c>
@@ -4870,16 +4898,16 @@
       <c r="BA33" s="7"/>
     </row>
     <row r="34" spans="1:53" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="68"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="45" t="s">
         <v>99</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="69"/>
       <c r="G34" s="18" t="s">
         <v>46</v>
       </c>
@@ -4982,16 +5010,16 @@
       <c r="BA34" s="7"/>
     </row>
     <row r="35" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="68"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="45" t="s">
         <v>100</v>
       </c>
       <c r="E35" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="68"/>
+      <c r="F35" s="69"/>
       <c r="G35" s="18" t="s">
         <v>46</v>
       </c>
@@ -5096,16 +5124,16 @@
       <c r="BA35" s="21"/>
     </row>
     <row r="36" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="66"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="69"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="45" t="s">
         <v>101</v>
       </c>
       <c r="E36" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="69"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="18" t="s">
         <v>46</v>
       </c>
@@ -5169,7 +5197,7 @@
         <f t="shared" ref="AH36:AH39" si="53">AE36-AG36</f>
         <v>2</v>
       </c>
-      <c r="AI36" s="73"/>
+      <c r="AI36" s="63"/>
       <c r="AJ36" s="16"/>
       <c r="AK36" s="16">
         <f t="shared" ref="AK36:AK39" si="54">AH36-AJ36</f>
@@ -5208,10 +5236,10 @@
       <c r="BA36" s="17"/>
     </row>
     <row r="37" spans="1:53" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="C37" s="68" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="45" t="s">
@@ -5220,7 +5248,7 @@
       <c r="E37" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="67" t="s">
+      <c r="F37" s="68" t="s">
         <v>51</v>
       </c>
       <c r="G37" s="18" t="s">
@@ -5323,15 +5351,15 @@
       <c r="BA37" s="14"/>
     </row>
     <row r="38" spans="1:53" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="65"/>
-      <c r="C38" s="68"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="69"/>
       <c r="D38" s="45" t="s">
         <v>102</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="68"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="18" t="s">
         <v>46</v>
       </c>
@@ -5432,15 +5460,15 @@
       <c r="BA38" s="7"/>
     </row>
     <row r="39" spans="1:53" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="66"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="70"/>
       <c r="D39" s="45" t="s">
         <v>103</v>
       </c>
       <c r="E39" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="69"/>
+      <c r="F39" s="70"/>
       <c r="G39" s="18" t="s">
         <v>46</v>
       </c>
@@ -5541,54 +5569,54 @@
       <c r="BA39" s="17"/>
     </row>
     <row r="41" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="79" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="56" t="s">
         <v>63</v>
       </c>
       <c r="D41" s="52"/>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="63"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="78"/>
+      <c r="S41" s="78"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B42" s="70"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="56" t="s">
         <v>64</v>
       </c>
       <c r="D42" s="53"/>
-      <c r="E42" s="63" t="s">
+      <c r="E42" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="63"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="78"/>
     </row>
     <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B43" s="57"/>
@@ -5596,63 +5624,73 @@
         <v>65</v>
       </c>
       <c r="D43" s="54"/>
-      <c r="E43" s="63" t="s">
+      <c r="E43" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="63"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="78"/>
+      <c r="R43" s="78"/>
+      <c r="S43" s="78"/>
     </row>
     <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="C44" s="56" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="55"/>
-      <c r="E44" s="63" t="s">
+      <c r="E44" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="63"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="78"/>
+      <c r="S44" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="F25:F31"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="E43:S43"/>
+    <mergeCell ref="E44:S44"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E41:S41"/>
+    <mergeCell ref="E42:S42"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="B12:B18"/>
     <mergeCell ref="AP4:AQ4"/>
     <mergeCell ref="AS4:AT4"/>
     <mergeCell ref="AV4:AW4"/>
@@ -5669,33 +5707,23 @@
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AD5:AE5"/>
     <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="E43:S43"/>
-    <mergeCell ref="E44:S44"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="E41:S41"/>
-    <mergeCell ref="E42:S42"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="45" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="44" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5704,7 +5732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
